--- a/data/tick_test.xlsx
+++ b/data/tick_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3D90E2-DC84-4AE9-A0D4-4A949C88A72E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A50EEB-84DE-4210-A947-B9FB5B497CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors,str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from_pos_idx_begin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +185,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(all_colors, str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -329,10 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(255,255,255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +366,18 @@
   </si>
   <si>
     <t>list(int, 3)</t>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -717,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,18 +755,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +789,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,62 +799,62 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -865,18 +869,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -891,18 +895,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -917,18 +921,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -943,18 +947,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -969,18 +973,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -995,18 +999,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1021,18 +1025,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1047,18 +1051,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1073,18 +1077,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1099,15 +1103,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1116,32 +1121,32 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -1176,10 +1181,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1235,7 +1240,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1266,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1306,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1320,7 +1325,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1332,7 +1337,7 @@
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1352,27 +1357,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1386,36 +1391,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1427,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1435,10 +1440,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1450,7 +1455,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1467,24 +1472,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,18 +1497,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1517,7 +1522,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1531,7 +1536,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1545,7 +1550,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1559,7 +1564,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1573,7 +1578,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1587,7 +1592,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1601,7 +1606,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1615,7 +1620,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1629,7 +1634,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1643,7 +1648,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>

--- a/data/tick_test.xlsx
+++ b/data/tick_test.xlsx
@@ -3,18 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A50EEB-84DE-4210-A947-B9FB5B497CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D39ED-76B5-402D-A51E-B3D99DDEBB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
     <sheet name="tile_1" sheetId="4" r:id="rId2"/>
-    <sheet name="range_link_1" sheetId="6" r:id="rId3"/>
-    <sheet name="config_1" sheetId="2" r:id="rId4"/>
-    <sheet name="circle_1" sheetId="3" r:id="rId5"/>
-    <sheet name="circle_tick_1" sheetId="7" r:id="rId6"/>
-    <sheet name="all_colors" sheetId="8" r:id="rId7"/>
+    <sheet name="config_1" sheetId="2" r:id="rId3"/>
+    <sheet name="circle_1" sheetId="3" r:id="rId4"/>
+    <sheet name="circle_tick_1" sheetId="7" r:id="rId5"/>
+    <sheet name="all_colors" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,34 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>link_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +148,6 @@
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -301,10 +268,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -313,70 +276,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
+    <t>(255,255,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
-  </si>
-  <si>
-    <t>all_colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,26 +718,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +752,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,62 +762,62 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -869,18 +832,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -895,18 +858,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -921,18 +884,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -947,18 +910,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -973,18 +936,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -999,18 +962,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1025,18 +988,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1051,18 +1014,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1077,18 +1040,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1103,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1117,87 +1080,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE92CD-4F45-4665-8ED1-B4A18F86433E}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1240,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,10 +1130,102 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>850</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1262,88 +1236,111 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>800</v>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1354,142 +1351,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1497,18 +1379,18 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1522,7 +1404,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1536,7 +1418,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1550,7 +1432,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1564,7 +1446,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1578,7 +1460,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1592,7 +1474,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1606,7 +1488,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1620,7 +1502,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1634,7 +1516,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1648,7 +1530,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>

--- a/data/tick_test.xlsx
+++ b/data/tick_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D39ED-76B5-402D-A51E-B3D99DDEBB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EA51BA-4042-42CC-87B7-FA5628CFD3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,19 +147,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -276,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,10 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all_colors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,18 +308,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["uint", 3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>[0, 0, 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int",3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255,255,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>any</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,12 +676,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -700,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -708,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -716,28 +713,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -752,46 +749,46 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>83</v>
@@ -800,24 +797,24 @@
         <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -832,18 +829,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -858,18 +855,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -884,18 +881,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -910,18 +907,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -936,18 +933,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -962,18 +959,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -988,18 +985,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1014,18 +1011,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1040,18 +1037,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1066,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1083,16 +1080,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1103,18 +1100,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1122,18 +1119,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1148,12 +1145,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1179,21 +1176,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1205,9 +1202,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1219,7 +1216,7 @@
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1240,12 +1237,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -1271,38 +1268,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1314,18 +1311,18 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1337,7 +1334,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1354,13 +1351,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1374,23 +1371,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1402,9 +1399,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1416,9 +1413,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1430,9 +1427,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1444,9 +1441,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1458,9 +1455,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1472,9 +1469,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1486,9 +1483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1500,9 +1497,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1514,9 +1511,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1528,9 +1525,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
